--- a/app_automation/data/dd_control_phone_config.xlsx
+++ b/app_automation/data/dd_control_phone_config.xlsx
@@ -36,7 +36,7 @@
     <t>platformVersion</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>deviceName</t>
@@ -100,7 +100,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +126,6 @@
       <color rgb="FF0033B3"/>
       <name val="Courier New"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -590,48 +583,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,97 +637,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1101,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
